--- a/documents/digital/表结构说明/oms_contract_brand_series.xlsx
+++ b/documents/digital/表结构说明/oms_contract_brand_series.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccdashu/Work/local-project/digital-data-syn/documents/digital/表结构说明/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="25360" windowHeight="14900"/>
   </bookViews>
   <sheets>
-    <sheet name="oms_contract_brand_series" sheetId="1" r:id="rId2"/>
+    <sheet name="oms_contract_brand_series" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -31,15 +42,52 @@
   </si>
   <si>
     <t>create_date</t>
+  </si>
+  <si>
+    <t>TB_CONBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONBS002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据TB_PUBHB中的pubhb004品牌ID查询品牌表TB_PUBHB_BRAND pubhb_id</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pin'pai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>cha'xun</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>pin'pai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -63,39 +111,344 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_contract_brand_series.xlsx
+++ b/documents/digital/表结构说明/oms_contract_brand_series.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccdashu/Work/local-project/digital-data-syn/documents/digital/表结构说明/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="25360" windowHeight="14900"/>
+    <workbookView xWindow="255" yWindow="465" windowWidth="25365" windowHeight="14895"/>
   </bookViews>
   <sheets>
     <sheet name="oms_contract_brand_series" sheetId="1" r:id="rId1"/>
+    <sheet name="相关sql" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>contract_id</t>
-  </si>
-  <si>
-    <t>brand_id</t>
   </si>
   <si>
     <t>brand_series_id</t>
@@ -76,12 +71,31 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>contract_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT
+--contract_id
+--contract_id_uuid
+--brand_id
+--brand_id_uuid
+--brand_series_id
+CONBS002 brand_series_id_uuid
+from TB_CONBS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -89,6 +103,18 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,11 +137,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -125,6 +156,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -396,52 +430,52 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -450,5 +484,136 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P6"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>